--- a/medicine/Sexualité et sexologie/When_the_Bough_Breaks_(film,_2016)/When_the_Bough_Breaks_(film,_2016).xlsx
+++ b/medicine/Sexualité et sexologie/When_the_Bough_Breaks_(film,_2016)/When_the_Bough_Breaks_(film,_2016).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">When the Bough Breaks (littéralement « Quand la branche craque ») ou Sois belle et tue-moi au Québec est un thriller érotico-psychologique américain réalisé par Jon Cassar, sorti en 2016.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John (Morris Chestnut) et Laura Taylor (Regina Hall), couple marié à la quarantaine, désire désespérément avoir un enfant : ils sont inaptes à la grossesse et Laura a déjà fait trois fausses couches. Le couple a trouvé et engage une belle jeune femme Anna Walsh (Jaz Sinclair) qui sera leur mère porteuse. Ils ignorent que derrière le visage angélique d'Anna se cache Mike, son fiancé ultraviolent qui veut l'obliger à tirer un meilleur parti du bébé à naître. Et que derrière Mike se cache encore la véritable personnalité d'Anna…
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : When the Bough Breaks
@@ -567,7 +583,7 @@
 Genre : thriller érotico-psychologique
 Dates de sortie :
 États-Unis : 9 septembre 2016
-France : 19 décembre 2019 (Netflix)[1]</t>
+France : 19 décembre 2019 (Netflix)</t>
         </is>
       </c>
     </row>
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Morris Chestnut (VFB : Mathieu Moreau) : John Taylor
@@ -643,10 +661,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-La production débute en fin janvier 2015 à La Nouvelle-Orléans en Louisiane[2],[3]. Le tournage commence le 2 février 2015 à La Nouvelle-Orléans[4], confirmé le 11 février par la société Screen Gems[5]. Il a également lieu dans la St. Charles Avenue en début de mars, et s'achève en fin mi-mars 2015[6].
-Musique
-La musique du film est composée par John Frizzell et supervisée par Robert Jackson.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production débute en fin janvier 2015 à La Nouvelle-Orléans en Louisiane,. Le tournage commence le 2 février 2015 à La Nouvelle-Orléans, confirmé le 11 février par la société Screen Gems. Il a également lieu dans la St. Charles Avenue en début de mars, et s'achève en fin mi-mars 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>When_the_Bough_Breaks_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/When_the_Bough_Breaks_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est composée par John Frizzell et supervisée par Robert Jackson.
 Chansons du film
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
 Real Love de Sunsun
@@ -661,39 +719,114 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>When_the_Bough_Breaks_(film,_2016)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/When_the_Bough_Breaks_(film,_2016)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sorties
-Le 30 mars 2015, Screen Gems annonce que le film devrait sortir le 16 septembre 2016[7]. Le 13 avril 2016, Sony Pictures dévoile sa première bande annonce[8]. En mai 2016, la sortie est annoncée pour le 9 septembre 2016[9].
-En France, le film ne sort pas en salle, mais il est finalement diffusé sur Netflix le 19 décembre 2019[1].
-Critiques
-Il reçoit un accueil critique défavorable, avec une note de 12 % sur le site Rotten Tomatoes[10]. Le film obtient 28 % sur Metacritic et une note utilisateur de 2,1 le classant ainsi dans la catégorie de « généralement défavorable »[11].
-Box-office
-Le film rencontre en revanche un certain un succès au box-office au Canada et aux États-Unis, décrochant la seconde place lors de sa sortie et générant plus de 30 millions de dollars de recettes pour un budget estimé à 10 millions de dollars[12].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sorties</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 mars 2015, Screen Gems annonce que le film devrait sortir le 16 septembre 2016. Le 13 avril 2016, Sony Pictures dévoile sa première bande annonce. En mai 2016, la sortie est annoncée pour le 9 septembre 2016.
+En France, le film ne sort pas en salle, mais il est finalement diffusé sur Netflix le 19 décembre 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>When_the_Bough_Breaks_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/When_the_Bough_Breaks_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit un accueil critique défavorable, avec une note de 12 % sur le site Rotten Tomatoes. Le film obtient 28 % sur Metacritic et une note utilisateur de 2,1 le classant ainsi dans la catégorie de « généralement défavorable ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>When_the_Bough_Breaks_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/When_the_Bough_Breaks_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film rencontre en revanche un certain un succès au box-office au Canada et aux États-Unis, décrochant la seconde place lors de sa sortie et générant plus de 30 millions de dollars de recettes pour un budget estimé à 10 millions de dollars.
 </t>
         </is>
       </c>
